--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\CV_play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6C8C8-C85D-4499-A496-1D7DAE419E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB342F3B-EF57-46E8-82CB-3D00773EBB5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Unsupervised Learning and Segmentation of Complex Activities from Videos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不需要语言输入，直接输入视频，且叙述者不需要标注每个活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,31 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要语言输入，直接输入视频，且叙述者不需要标注每个活动。使用了GMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance Based Ranking Models.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. A. Fligner and J. S. Verducci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Recognition by Dense Trajectories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Heng Wang, Alexander Kläser, Cordelia Schmid, Liu Cheng-Lin
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集轨迹法，估测物体运动的经典方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,28 +397,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.4140625" customWidth="1"/>
+    <col min="2" max="2" width="36.58203125" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -405,7 +429,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/track.xlsx
+++ b/track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\CV_play\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS\seek supervisor\F Sener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB342F3B-EF57-46E8-82CB-3D00773EBB5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBAF64-760A-4A45-9803-D80EC2BA9700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Unsupervised Learning and Segmentation of Complex Activities from Videos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,22 @@
   </si>
   <si>
     <t>密集轨迹法，估测物体运动的经典方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An end-to-end generative framework for video segmentation and recognition
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilde Kuehne
+Juergen Gall
+Thomas Serre
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sener那篇文章用了这篇文章提供的特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -451,6 +467,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
